--- a/RESULT/PROD/报工及时率和完整率.xlsx
+++ b/RESULT/PROD/报工及时率和完整率.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Python\Source\KPI\RESULT\PROD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78ADEC2-2B75-40F2-A55D-5C15E07475E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报工及时率和完整率" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报工及时率和完整率!$A$1:$L$122</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -55,936 +64,941 @@
     <t>0000033794</t>
   </si>
   <si>
+    <t>101703883</t>
+  </si>
+  <si>
+    <t>合模单元,装配</t>
+  </si>
+  <si>
+    <t>PX001</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>完整</t>
+  </si>
+  <si>
+    <t>2021-10-12 08:55:30</t>
+  </si>
+  <si>
+    <t>不及时</t>
+  </si>
+  <si>
+    <t>PX002</t>
+  </si>
+  <si>
     <t>0000033220</t>
   </si>
   <si>
+    <t>PX003</t>
+  </si>
+  <si>
+    <t>2021-10-12 08:55:12</t>
+  </si>
+  <si>
+    <t>PX004</t>
+  </si>
+  <si>
     <t>0000033795</t>
   </si>
   <si>
+    <t>Z1019</t>
+  </si>
+  <si>
+    <t>2021-10-12 08:56:26</t>
+  </si>
+  <si>
     <t>0000033793</t>
   </si>
   <si>
+    <t>101703884</t>
+  </si>
+  <si>
+    <t>单元,喷射</t>
+  </si>
+  <si>
+    <t>PX006</t>
+  </si>
+  <si>
+    <t>2021-10-12 08:51:55</t>
+  </si>
+  <si>
+    <t>PX007</t>
+  </si>
+  <si>
     <t>0000033796</t>
   </si>
   <si>
+    <t>2021-10-12 08:56:51</t>
+  </si>
+  <si>
     <t>0000033175</t>
   </si>
   <si>
+    <t>101703885</t>
+  </si>
+  <si>
+    <t>控制柜,整体</t>
+  </si>
+  <si>
+    <t>PXE05</t>
+  </si>
+  <si>
+    <t>2021-10-08 08:58:14</t>
+  </si>
+  <si>
+    <t>PXE06</t>
+  </si>
+  <si>
+    <t>PXE07</t>
+  </si>
+  <si>
+    <t>PXE08</t>
+  </si>
+  <si>
     <t>0000033176</t>
   </si>
   <si>
+    <t>PXE09</t>
+  </si>
+  <si>
+    <t>2021-10-08 08:58:51</t>
+  </si>
+  <si>
     <t>0000033792</t>
   </si>
   <si>
+    <t>101703886</t>
+  </si>
+  <si>
+    <t>机器,主体</t>
+  </si>
+  <si>
+    <t>PX008</t>
+  </si>
+  <si>
+    <t>2021-10-12 08:51:19</t>
+  </si>
+  <si>
+    <t>PX009</t>
+  </si>
+  <si>
+    <t>PX010</t>
+  </si>
+  <si>
+    <t>2021-10-12 08:51:20</t>
+  </si>
+  <si>
+    <t>PX011</t>
+  </si>
+  <si>
+    <t>PX012</t>
+  </si>
+  <si>
+    <t>PX013</t>
+  </si>
+  <si>
+    <t>PX014</t>
+  </si>
+  <si>
+    <t>PX015</t>
+  </si>
+  <si>
     <t>0000033791</t>
   </si>
   <si>
+    <t>PX020</t>
+  </si>
+  <si>
+    <t>2021-10-12 08:50:41</t>
+  </si>
+  <si>
+    <t>PX021</t>
+  </si>
+  <si>
     <t>0000034318</t>
   </si>
   <si>
+    <t>101707283</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>不完整</t>
+  </si>
+  <si>
+    <t>2021-10-18 09:52:37</t>
+  </si>
+  <si>
     <t>0000034863</t>
   </si>
   <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>2021-10-25 09:02:54</t>
+  </si>
+  <si>
     <t>0000035350</t>
   </si>
   <si>
+    <t>2021-10-28 10:08:29</t>
+  </si>
+  <si>
     <t>0000034847</t>
   </si>
   <si>
+    <t>101707284</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>2021-10-25 08:54:54</t>
+  </si>
+  <si>
     <t>0000034482</t>
   </si>
   <si>
+    <t>101707286</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:54:14</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:54:15</t>
+  </si>
+  <si>
     <t>0000034483</t>
   </si>
   <si>
+    <t>2021-10-18 13:55:25</t>
+  </si>
+  <si>
     <t>0000034864</t>
   </si>
   <si>
+    <t>101707585</t>
+  </si>
+  <si>
+    <t>2021-10-25 09:04:26</t>
+  </si>
+  <si>
     <t>0000035352</t>
   </si>
   <si>
+    <t>2021-10-28 10:12:01</t>
+  </si>
+  <si>
     <t>0000035358</t>
   </si>
   <si>
+    <t>2021-10-28 10:22:21</t>
+  </si>
+  <si>
     <t>0000035356</t>
   </si>
   <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>2021-10-28 10:17:33</t>
+  </si>
+  <si>
     <t>0000035100</t>
   </si>
   <si>
+    <t>SC20211008001</t>
+  </si>
+  <si>
+    <t>机座</t>
+  </si>
+  <si>
+    <t>M1015</t>
+  </si>
+  <si>
+    <t>2021-10-26 14:07:49</t>
+  </si>
+  <si>
+    <t>及时</t>
+  </si>
+  <si>
     <t>0000033797</t>
   </si>
   <si>
+    <t>SC20211009001</t>
+  </si>
+  <si>
+    <t>行程开关垫板</t>
+  </si>
+  <si>
+    <t>M1006</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>2021-10-12 12:11:31</t>
+  </si>
+  <si>
     <t>0000033798</t>
   </si>
   <si>
+    <t>M1007</t>
+  </si>
+  <si>
+    <t>2021-10-12 12:11:57</t>
+  </si>
+  <si>
     <t>0000033799</t>
   </si>
   <si>
+    <t>2021-10-12 12:12:27</t>
+  </si>
+  <si>
     <t>0000033800</t>
   </si>
   <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>2021-10-12 12:16:20</t>
+  </si>
+  <si>
     <t>0000033801</t>
   </si>
   <si>
+    <t>2021-10-12 12:16:49</t>
+  </si>
+  <si>
     <t>0000033802</t>
   </si>
   <si>
+    <t>2021-10-12 12:17:22</t>
+  </si>
+  <si>
     <t>0000033803</t>
   </si>
   <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2021-10-12 12:34:11</t>
+  </si>
+  <si>
     <t>0000033804</t>
   </si>
   <si>
+    <t>2021-10-12 12:36:35</t>
+  </si>
+  <si>
     <t>0000033805</t>
   </si>
   <si>
+    <t>2021-10-12 12:38:34</t>
+  </si>
+  <si>
     <t>0000035288</t>
   </si>
   <si>
+    <t>SC20211009005</t>
+  </si>
+  <si>
+    <t>假模改造</t>
+  </si>
+  <si>
+    <t>J5001</t>
+  </si>
+  <si>
+    <t>2021-10-27 13:37:45</t>
+  </si>
+  <si>
     <t>0000035286</t>
   </si>
   <si>
+    <t>SC20211009006</t>
+  </si>
+  <si>
+    <t>调节喷嘴</t>
+  </si>
+  <si>
+    <t>J1001</t>
+  </si>
+  <si>
+    <t>2021-10-27 13:36:58</t>
+  </si>
+  <si>
     <t>0000033967</t>
   </si>
   <si>
+    <t>SC20211009008</t>
+  </si>
+  <si>
+    <t>加强板</t>
+  </si>
+  <si>
+    <t>M1002</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>2021-10-12 17:58:27</t>
+  </si>
+  <si>
     <t>0000033968</t>
   </si>
   <si>
+    <t>M1003</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>2021-10-12 18:00:16</t>
+  </si>
+  <si>
     <t>0000033944</t>
   </si>
   <si>
+    <t>筋板</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>2021-10-12 15:31:07</t>
+  </si>
+  <si>
     <t>0000033945</t>
   </si>
   <si>
+    <t>2021-10-12 15:35:34</t>
+  </si>
+  <si>
     <t>0000033946</t>
   </si>
   <si>
+    <t>2021-10-12 15:36:57</t>
+  </si>
+  <si>
     <t>0000033970</t>
   </si>
   <si>
+    <t>前后腹板</t>
+  </si>
+  <si>
+    <t>2021-10-12 18:01:07</t>
+  </si>
+  <si>
     <t>0000033971</t>
   </si>
   <si>
+    <t>2021-10-12 18:02:52</t>
+  </si>
+  <si>
     <t>0000033960</t>
   </si>
   <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>2021-10-12 17:52:07</t>
+  </si>
+  <si>
     <t>0000033961</t>
   </si>
   <si>
+    <t>2021-10-12 17:52:54</t>
+  </si>
+  <si>
     <t>0000033963</t>
   </si>
   <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>2021-10-12 17:56:28</t>
+  </si>
+  <si>
     <t>0000033965</t>
   </si>
   <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>2021-10-12 17:57:25</t>
+  </si>
+  <si>
     <t>0000033966</t>
   </si>
   <si>
+    <t>2021-10-12 17:57:56</t>
+  </si>
+  <si>
     <t>0000033948</t>
   </si>
   <si>
+    <t>底板</t>
+  </si>
+  <si>
+    <t>2021-10-12 15:40:57</t>
+  </si>
+  <si>
     <t>0000033951</t>
   </si>
   <si>
+    <t>2021-10-12 15:48:35</t>
+  </si>
+  <si>
     <t>0000033949</t>
   </si>
   <si>
+    <t>2021-10-12 15:41:22</t>
+  </si>
+  <si>
     <t>0000033950</t>
   </si>
   <si>
+    <t>2021-10-12 15:41:47</t>
+  </si>
+  <si>
     <t>0000034431</t>
   </si>
   <si>
+    <t>SC20211009009</t>
+  </si>
+  <si>
+    <t>曲柄齿轮</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:05:58</t>
+  </si>
+  <si>
     <t>0000034203</t>
   </si>
   <si>
+    <t>左端板</t>
+  </si>
+  <si>
+    <t>J3004</t>
+  </si>
+  <si>
+    <t>2021-10-15 20:46:54</t>
+  </si>
+  <si>
     <t>0000034204</t>
   </si>
   <si>
+    <t>J9001</t>
+  </si>
+  <si>
+    <t>2021-10-15 20:47:09</t>
+  </si>
+  <si>
     <t>0000034201</t>
   </si>
   <si>
+    <t>右端板</t>
+  </si>
+  <si>
+    <t>2021-10-15 20:45:18</t>
+  </si>
+  <si>
     <t>0000034202</t>
   </si>
   <si>
+    <t>2021-10-15 20:46:03</t>
+  </si>
+  <si>
     <t>0000034075</t>
   </si>
   <si>
+    <t>J1007</t>
+  </si>
+  <si>
+    <t>2021-10-14 09:44:15</t>
+  </si>
+  <si>
     <t>0000034206</t>
   </si>
   <si>
+    <t>2021-10-16 12:15:26</t>
+  </si>
+  <si>
     <t>0000034205</t>
   </si>
   <si>
+    <t>2021-10-16 12:15:03</t>
+  </si>
+  <si>
     <t>0000033746</t>
   </si>
   <si>
+    <t>左连接板</t>
+  </si>
+  <si>
+    <t>M1009</t>
+  </si>
+  <si>
+    <t>2021-10-11 15:30:21</t>
+  </si>
+  <si>
     <t>0000033747</t>
   </si>
   <si>
+    <t>M1011</t>
+  </si>
+  <si>
+    <t>2021-10-11 15:30:49</t>
+  </si>
+  <si>
     <t>0000033942</t>
   </si>
   <si>
+    <t>2021-10-12 15:27:32</t>
+  </si>
+  <si>
     <t>0000033744</t>
   </si>
   <si>
+    <t>右连接板</t>
+  </si>
+  <si>
+    <t>2021-10-11 15:29:32</t>
+  </si>
+  <si>
     <t>0000033745</t>
   </si>
   <si>
+    <t>2021-10-11 15:30:01</t>
+  </si>
+  <si>
     <t>0000033941</t>
   </si>
   <si>
+    <t>2021-10-12 15:23:12</t>
+  </si>
+  <si>
     <t>0000034310</t>
   </si>
   <si>
+    <t>法兰</t>
+  </si>
+  <si>
+    <t>2021-10-18 09:46:52</t>
+  </si>
+  <si>
     <t>0000034311</t>
   </si>
   <si>
+    <t>J4001</t>
+  </si>
+  <si>
+    <t>2021-10-18 09:47:17</t>
+  </si>
+  <si>
     <t>0000034312</t>
   </si>
   <si>
+    <t>J5002</t>
+  </si>
+  <si>
+    <t>2021-10-18 09:48:58</t>
+  </si>
+  <si>
     <t>0000034313</t>
   </si>
   <si>
+    <t>2021-10-18 09:49:19</t>
+  </si>
+  <si>
     <t>0000033986</t>
   </si>
   <si>
+    <t>SC20211009011</t>
+  </si>
+  <si>
+    <t>2021-10-12 18:13:00</t>
+  </si>
+  <si>
     <t>0000033987</t>
   </si>
   <si>
+    <t>2021-10-12 18:14:21</t>
+  </si>
+  <si>
     <t>0000033972</t>
   </si>
   <si>
+    <t>2021-10-12 18:03:43</t>
+  </si>
+  <si>
     <t>0000033973</t>
   </si>
   <si>
+    <t>2021-10-12 18:04:55</t>
+  </si>
+  <si>
     <t>0000033974</t>
   </si>
   <si>
+    <t>2021-10-12 18:05:16</t>
+  </si>
+  <si>
     <t>0000033989</t>
   </si>
   <si>
+    <t>2021-10-12 18:15:16</t>
+  </si>
+  <si>
     <t>0000033990</t>
   </si>
   <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>2021-10-12 18:15:47</t>
+  </si>
+  <si>
     <t>0000033979</t>
   </si>
   <si>
+    <t>2021-10-12 18:08:55</t>
+  </si>
+  <si>
     <t>0000033980</t>
   </si>
   <si>
+    <t>2021-10-12 18:10:35</t>
+  </si>
+  <si>
     <t>0000033982</t>
   </si>
   <si>
+    <t>2021-10-12 18:11:16</t>
+  </si>
+  <si>
     <t>0000033984</t>
   </si>
   <si>
+    <t>2021-10-12 18:12:04</t>
+  </si>
+  <si>
     <t>0000033985</t>
   </si>
   <si>
+    <t>2021-10-12 18:12:29</t>
+  </si>
+  <si>
     <t>0000033975</t>
   </si>
   <si>
+    <t>2021-10-12 18:05:35</t>
+  </si>
+  <si>
     <t>0000033978</t>
   </si>
   <si>
+    <t>2021-10-12 18:08:27</t>
+  </si>
+  <si>
     <t>0000033976</t>
   </si>
   <si>
+    <t>2021-10-12 18:05:59</t>
+  </si>
+  <si>
     <t>0000033977</t>
   </si>
   <si>
+    <t>2021-10-12 18:06:19</t>
+  </si>
+  <si>
     <t>0000034435</t>
   </si>
   <si>
+    <t>SC20211009012</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:08:26</t>
+  </si>
+  <si>
     <t>0000034436</t>
   </si>
   <si>
+    <t>2021-10-18 13:08:46</t>
+  </si>
+  <si>
     <t>0000034437</t>
   </si>
   <si>
+    <t>2021-10-18 13:09:28</t>
+  </si>
+  <si>
     <t>0000034438</t>
   </si>
   <si>
+    <t>2021-10-18 13:09:46</t>
+  </si>
+  <si>
     <t>0000034309</t>
   </si>
   <si>
+    <t>2021-10-18 09:45:30</t>
+  </si>
+  <si>
     <t>0000034738</t>
   </si>
   <si>
+    <t>2021-10-22 13:54:26</t>
+  </si>
+  <si>
     <t>0000034737</t>
   </si>
   <si>
+    <t>2021-10-22 13:54:00</t>
+  </si>
+  <si>
     <t>0000033738</t>
   </si>
   <si>
+    <t>2021-10-11 15:27:21</t>
+  </si>
+  <si>
     <t>0000033739</t>
   </si>
   <si>
+    <t>2021-10-11 15:27:41</t>
+  </si>
+  <si>
     <t>0000033740</t>
   </si>
   <si>
+    <t>2021-10-11 15:28:07</t>
+  </si>
+  <si>
     <t>0000033741</t>
   </si>
   <si>
+    <t>2021-10-11 15:28:28</t>
+  </si>
+  <si>
     <t>0000033742</t>
   </si>
   <si>
+    <t>2021-10-11 15:28:50</t>
+  </si>
+  <si>
     <t>0000033743</t>
   </si>
   <si>
+    <t>2021-10-11 15:29:12</t>
+  </si>
+  <si>
     <t>0000035330</t>
   </si>
   <si>
+    <t>2021-10-27 16:19:38</t>
+  </si>
+  <si>
     <t>0000035331</t>
   </si>
   <si>
+    <t>2021-10-27 16:19:57</t>
+  </si>
+  <si>
     <t>0000035332</t>
   </si>
   <si>
+    <t>2021-10-27 16:20:20</t>
+  </si>
+  <si>
     <t>0000035333</t>
   </si>
   <si>
+    <t>2021-10-27 16:20:39</t>
+  </si>
+  <si>
     <t>0000034543</t>
   </si>
   <si>
+    <t>SC20211018001</t>
+  </si>
+  <si>
+    <t>导向体</t>
+  </si>
+  <si>
+    <t>J15001</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2021-10-20 08:37:55</t>
+  </si>
+  <si>
     <t>0000034484</t>
   </si>
   <si>
+    <t>连接杆</t>
+  </si>
+  <si>
+    <t>2021-10-19 08:13:04</t>
+  </si>
+  <si>
     <t>0000034485</t>
   </si>
   <si>
+    <t>SC20211018002</t>
+  </si>
+  <si>
+    <t>2021-10-19 08:14:22</t>
+  </si>
+  <si>
     <t>0000034486</t>
   </si>
   <si>
-    <t>101703883</t>
-  </si>
-  <si>
-    <t>101703884</t>
-  </si>
-  <si>
-    <t>101703885</t>
-  </si>
-  <si>
-    <t>101703886</t>
-  </si>
-  <si>
-    <t>101707283</t>
-  </si>
-  <si>
-    <t>101707284</t>
-  </si>
-  <si>
-    <t>101707286</t>
-  </si>
-  <si>
-    <t>101707585</t>
-  </si>
-  <si>
-    <t>SC20211008001</t>
-  </si>
-  <si>
-    <t>SC20211009001</t>
-  </si>
-  <si>
-    <t>SC20211009005</t>
-  </si>
-  <si>
-    <t>SC20211009006</t>
-  </si>
-  <si>
-    <t>SC20211009008</t>
-  </si>
-  <si>
-    <t>SC20211009009</t>
-  </si>
-  <si>
-    <t>SC20211009011</t>
-  </si>
-  <si>
-    <t>SC20211009012</t>
-  </si>
-  <si>
-    <t>SC20211018001</t>
-  </si>
-  <si>
-    <t>SC20211018002</t>
-  </si>
-  <si>
     <t>SC20211018003</t>
   </si>
   <si>
-    <t>合模单元,装配</t>
-  </si>
-  <si>
-    <t>单元,喷射</t>
-  </si>
-  <si>
-    <t>控制柜,整体</t>
-  </si>
-  <si>
-    <t>机器,主体</t>
-  </si>
-  <si>
-    <t>机座</t>
-  </si>
-  <si>
-    <t>行程开关垫板</t>
-  </si>
-  <si>
-    <t>假模改造</t>
-  </si>
-  <si>
-    <t>调节喷嘴</t>
-  </si>
-  <si>
-    <t>加强板</t>
-  </si>
-  <si>
-    <t>筋板</t>
-  </si>
-  <si>
-    <t>前后腹板</t>
-  </si>
-  <si>
-    <t>底板</t>
-  </si>
-  <si>
-    <t>曲柄齿轮</t>
-  </si>
-  <si>
-    <t>左端板</t>
-  </si>
-  <si>
-    <t>右端板</t>
-  </si>
-  <si>
-    <t>左连接板</t>
-  </si>
-  <si>
-    <t>右连接板</t>
-  </si>
-  <si>
-    <t>法兰</t>
-  </si>
-  <si>
-    <t>导向体</t>
-  </si>
-  <si>
-    <t>连接杆</t>
-  </si>
-  <si>
     <t>导向杆座</t>
   </si>
   <si>
-    <t>PX001</t>
-  </si>
-  <si>
-    <t>PX002</t>
-  </si>
-  <si>
-    <t>PX003</t>
-  </si>
-  <si>
-    <t>PX004</t>
-  </si>
-  <si>
-    <t>Z1019</t>
-  </si>
-  <si>
-    <t>PX006</t>
-  </si>
-  <si>
-    <t>PX007</t>
-  </si>
-  <si>
-    <t>PXE05</t>
-  </si>
-  <si>
-    <t>PXE06</t>
-  </si>
-  <si>
-    <t>PXE07</t>
-  </si>
-  <si>
-    <t>PXE08</t>
-  </si>
-  <si>
-    <t>PXE09</t>
-  </si>
-  <si>
-    <t>PX008</t>
-  </si>
-  <si>
-    <t>PX009</t>
-  </si>
-  <si>
-    <t>PX010</t>
-  </si>
-  <si>
-    <t>PX011</t>
-  </si>
-  <si>
-    <t>PX012</t>
-  </si>
-  <si>
-    <t>PX013</t>
-  </si>
-  <si>
-    <t>PX014</t>
-  </si>
-  <si>
-    <t>PX015</t>
-  </si>
-  <si>
-    <t>PX020</t>
-  </si>
-  <si>
-    <t>PX021</t>
-  </si>
-  <si>
-    <t>M1015</t>
-  </si>
-  <si>
-    <t>M1006</t>
-  </si>
-  <si>
-    <t>M1007</t>
-  </si>
-  <si>
-    <t>J5001</t>
-  </si>
-  <si>
-    <t>J1001</t>
-  </si>
-  <si>
-    <t>M1002</t>
-  </si>
-  <si>
-    <t>M1003</t>
-  </si>
-  <si>
-    <t>J3004</t>
-  </si>
-  <si>
-    <t>J9001</t>
-  </si>
-  <si>
-    <t>J1007</t>
-  </si>
-  <si>
-    <t>M1009</t>
-  </si>
-  <si>
-    <t>M1011</t>
-  </si>
-  <si>
-    <t>J4001</t>
-  </si>
-  <si>
-    <t>J5002</t>
-  </si>
-  <si>
-    <t>J15001</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>完整</t>
-  </si>
-  <si>
-    <t>不完整</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:55:30</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:55:12</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:56:26</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:51:55</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:56:51</t>
-  </si>
-  <si>
-    <t>2021-10-08 08:58:14</t>
-  </si>
-  <si>
-    <t>2021-10-08 08:58:51</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:51:19</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:51:20</t>
-  </si>
-  <si>
-    <t>2021-10-12 08:50:41</t>
-  </si>
-  <si>
-    <t>2021-10-18 09:52:37</t>
-  </si>
-  <si>
-    <t>2021-10-25 09:02:54</t>
-  </si>
-  <si>
-    <t>2021-10-28 10:08:29</t>
-  </si>
-  <si>
-    <t>2021-10-25 08:54:54</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:54:14</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:54:15</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:55:25</t>
-  </si>
-  <si>
-    <t>2021-10-25 09:04:26</t>
-  </si>
-  <si>
-    <t>2021-10-28 10:12:01</t>
-  </si>
-  <si>
-    <t>2021-10-28 10:22:21</t>
-  </si>
-  <si>
-    <t>2021-10-28 10:17:33</t>
-  </si>
-  <si>
-    <t>2021-10-26 14:07:49</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:11:31</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:11:57</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:12:27</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:16:20</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:16:49</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:17:22</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:34:11</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:36:35</t>
-  </si>
-  <si>
-    <t>2021-10-12 12:38:34</t>
-  </si>
-  <si>
-    <t>2021-10-27 13:37:45</t>
-  </si>
-  <si>
-    <t>2021-10-27 13:36:58</t>
-  </si>
-  <si>
-    <t>2021-10-12 17:58:27</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:00:16</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:31:07</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:35:34</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:36:57</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:01:07</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:02:52</t>
-  </si>
-  <si>
-    <t>2021-10-12 17:52:07</t>
-  </si>
-  <si>
-    <t>2021-10-12 17:52:54</t>
-  </si>
-  <si>
-    <t>2021-10-12 17:56:28</t>
-  </si>
-  <si>
-    <t>2021-10-12 17:57:25</t>
-  </si>
-  <si>
-    <t>2021-10-12 17:57:56</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:40:57</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:48:35</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:41:22</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:41:47</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:05:58</t>
-  </si>
-  <si>
-    <t>2021-10-15 20:46:54</t>
-  </si>
-  <si>
-    <t>2021-10-15 20:47:09</t>
-  </si>
-  <si>
-    <t>2021-10-15 20:45:18</t>
-  </si>
-  <si>
-    <t>2021-10-15 20:46:03</t>
-  </si>
-  <si>
-    <t>2021-10-14 09:44:15</t>
-  </si>
-  <si>
-    <t>2021-10-16 12:15:26</t>
-  </si>
-  <si>
-    <t>2021-10-16 12:15:03</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:30:21</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:30:49</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:27:32</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:29:32</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:30:01</t>
-  </si>
-  <si>
-    <t>2021-10-12 15:23:12</t>
-  </si>
-  <si>
-    <t>2021-10-18 09:46:52</t>
-  </si>
-  <si>
-    <t>2021-10-18 09:47:17</t>
-  </si>
-  <si>
-    <t>2021-10-18 09:48:58</t>
-  </si>
-  <si>
-    <t>2021-10-18 09:49:19</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:13:00</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:14:21</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:03:43</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:04:55</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:05:16</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:15:16</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:15:47</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:08:55</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:10:35</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:11:16</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:12:04</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:12:29</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:05:35</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:08:27</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:05:59</t>
-  </si>
-  <si>
-    <t>2021-10-12 18:06:19</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:08:26</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:08:46</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:09:28</t>
-  </si>
-  <si>
-    <t>2021-10-18 13:09:46</t>
-  </si>
-  <si>
-    <t>2021-10-18 09:45:30</t>
-  </si>
-  <si>
-    <t>2021-10-22 13:54:26</t>
-  </si>
-  <si>
-    <t>2021-10-22 13:54:00</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:27:21</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:27:41</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:28:07</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:28:28</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:28:50</t>
-  </si>
-  <si>
-    <t>2021-10-11 15:29:12</t>
-  </si>
-  <si>
-    <t>2021-10-27 16:19:38</t>
-  </si>
-  <si>
-    <t>2021-10-27 16:19:57</t>
-  </si>
-  <si>
-    <t>2021-10-27 16:20:20</t>
-  </si>
-  <si>
-    <t>2021-10-27 16:20:39</t>
-  </si>
-  <si>
-    <t>2021-10-20 08:37:55</t>
-  </si>
-  <si>
-    <t>2021-10-19 08:13:04</t>
-  </si>
-  <si>
-    <t>2021-10-19 08:14:22</t>
-  </si>
-  <si>
     <t>2021-10-19 08:15:57</t>
-  </si>
-  <si>
-    <t>不及时</t>
-  </si>
-  <si>
-    <t>及时</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1028,13 +1042,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1322,14 +1344,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,12 +1403,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1381,36 +1417,36 @@
         <v>920488780</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2">
         <v>44477</v>
       </c>
       <c r="K2" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1419,36 +1455,36 @@
         <v>920488780</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <v>44477</v>
       </c>
       <c r="K3" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1457,36 +1493,36 @@
         <v>920488780</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2">
         <v>44477</v>
       </c>
       <c r="K4" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1495,36 +1531,36 @@
         <v>920488780</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2">
         <v>44477</v>
       </c>
       <c r="K5" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1533,36 +1569,36 @@
         <v>920488780</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2">
         <v>44477</v>
       </c>
       <c r="K6" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1571,36 +1607,36 @@
         <v>920488803</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2">
         <v>44477</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1609,36 +1645,36 @@
         <v>920488803</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J8" s="2">
         <v>44477</v>
       </c>
       <c r="K8" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1647,36 +1683,36 @@
         <v>920488803</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2">
         <v>44477</v>
       </c>
       <c r="K9" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1685,36 +1721,36 @@
         <v>920500008</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J10" s="2">
         <v>44477</v>
       </c>
       <c r="K10" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1723,36 +1759,36 @@
         <v>920500008</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2">
         <v>44477</v>
       </c>
       <c r="K11" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1761,36 +1797,36 @@
         <v>920500008</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2">
         <v>44477</v>
       </c>
       <c r="K12" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1799,36 +1835,36 @@
         <v>920500008</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J13" s="2">
         <v>44477</v>
       </c>
       <c r="K13" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1837,36 +1873,36 @@
         <v>920500008</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J14" s="2">
         <v>44477</v>
       </c>
       <c r="K14" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1875,36 +1911,36 @@
         <v>920485493</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J15" s="2">
         <v>44477</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1913,36 +1949,36 @@
         <v>920485493</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J16" s="2">
         <v>44477</v>
       </c>
       <c r="K16" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1951,36 +1987,36 @@
         <v>920485493</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J17" s="2">
         <v>44477</v>
       </c>
       <c r="K17" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1989,36 +2025,36 @@
         <v>920485493</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J18" s="2">
         <v>44477</v>
       </c>
       <c r="K18" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2027,36 +2063,36 @@
         <v>920485493</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J19" s="2">
         <v>44477</v>
       </c>
       <c r="K19" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2065,36 +2101,36 @@
         <v>920485493</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J20" s="2">
         <v>44477</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2103,36 +2139,36 @@
         <v>920485493</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J21" s="2">
         <v>44477</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2141,36 +2177,36 @@
         <v>920485493</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J22" s="2">
         <v>44477</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2179,36 +2215,36 @@
         <v>920485493</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J23" s="2">
         <v>44477</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="L23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2217,36 +2253,36 @@
         <v>920485493</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J24" s="2">
         <v>44477</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2255,36 +2291,36 @@
         <v>920488779</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J25" s="2">
         <v>44487</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2293,36 +2329,36 @@
         <v>920488779</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J26" s="2">
         <v>44487</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="L26" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2331,36 +2367,36 @@
         <v>920488779</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J27" s="2">
         <v>44487</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2369,36 +2405,36 @@
         <v>920488790</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J28" s="2">
         <v>44487</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="L28" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2407,36 +2443,36 @@
         <v>920488826</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J29" s="2">
         <v>44487</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2445,36 +2481,36 @@
         <v>920488826</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J30" s="2">
         <v>44487</v>
       </c>
       <c r="K30" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2483,36 +2519,36 @@
         <v>920488826</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J31" s="2">
         <v>44487</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2521,36 +2557,36 @@
         <v>920488826</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J32" s="2">
         <v>44487</v>
       </c>
       <c r="K32" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2559,36 +2595,36 @@
         <v>920488826</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J33" s="2">
         <v>44487</v>
       </c>
       <c r="K33" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2597,36 +2633,36 @@
         <v>920488697</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J34" s="2">
         <v>44487</v>
       </c>
       <c r="K34" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2635,36 +2671,36 @@
         <v>920488697</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J35" s="2">
         <v>44487</v>
       </c>
       <c r="K35" t="s">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2673,36 +2709,36 @@
         <v>920488697</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J36" s="2">
         <v>44487</v>
       </c>
       <c r="K36" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2711,36 +2747,36 @@
         <v>920488697</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J37" s="2">
         <v>44487</v>
       </c>
       <c r="K37" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2749,36 +2785,36 @@
         <v>920488697</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J38" s="2">
         <v>44487</v>
       </c>
       <c r="K38" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2787,36 +2823,36 @@
         <v>920488697</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J39" s="2">
         <v>44487</v>
       </c>
       <c r="K39" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="L39" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2825,36 +2861,36 @@
         <v>920076405</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J40" s="2">
         <v>44550</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2863,36 +2899,36 @@
         <v>888515800</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J41" s="2">
         <v>44372</v>
       </c>
       <c r="K41" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="L41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2901,36 +2937,36 @@
         <v>888515800</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J42" s="2">
         <v>44372</v>
       </c>
       <c r="K42" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2939,36 +2975,36 @@
         <v>888515800</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I43" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J43" s="2">
         <v>44372</v>
       </c>
       <c r="K43" t="s">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -2977,36 +3013,36 @@
         <v>888515800</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="G44">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J44" s="2">
         <v>44390</v>
       </c>
       <c r="K44" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="L44" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3015,36 +3051,36 @@
         <v>888515800</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I45" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J45" s="2">
         <v>44390</v>
       </c>
       <c r="K45" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="L45" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3053,36 +3089,36 @@
         <v>888515800</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G46">
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J46" s="2">
         <v>44390</v>
       </c>
       <c r="K46" t="s">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="L46" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3091,36 +3127,36 @@
         <v>888515800</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J47" s="2">
         <v>44391</v>
       </c>
       <c r="K47" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="L47" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3129,36 +3165,36 @@
         <v>888515800</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="I48" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J48" s="2">
         <v>44391</v>
       </c>
       <c r="K48" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="L48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -3167,36 +3203,36 @@
         <v>888515800</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="I49" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J49" s="2">
         <v>44391</v>
       </c>
       <c r="K49" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="L49" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3205,36 +3241,36 @@
         <v>888023180</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J50" s="2">
         <v>44480</v>
       </c>
       <c r="K50" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3243,36 +3279,36 @@
         <v>888023181</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J51" s="2">
         <v>44480</v>
       </c>
       <c r="K51" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3281,36 +3317,36 @@
         <v>888515829</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G52">
         <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J52" s="2">
         <v>44456</v>
       </c>
       <c r="K52" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3319,36 +3355,36 @@
         <v>888515829</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J53" s="2">
         <v>44456</v>
       </c>
       <c r="K53" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="L53" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3357,36 +3393,36 @@
         <v>888515830</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G54">
         <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I54" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J54" s="2">
         <v>44456</v>
       </c>
       <c r="K54" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="L54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3395,36 +3431,36 @@
         <v>888515830</v>
       </c>
       <c r="E55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" t="s">
         <v>142</v>
-      </c>
-      <c r="F55" t="s">
-        <v>182</v>
       </c>
       <c r="G55">
         <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J55" s="2">
         <v>44456</v>
       </c>
       <c r="K55" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="L55" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3433,36 +3469,36 @@
         <v>888515830</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G56">
         <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I56" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J56" s="2">
         <v>44456</v>
       </c>
       <c r="K56" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="L56" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -3471,36 +3507,36 @@
         <v>888515832</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G57">
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I57" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J57" s="2">
         <v>44456</v>
       </c>
       <c r="K57" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="L57" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3509,36 +3545,36 @@
         <v>888515832</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G58">
         <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="I58" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J58" s="2">
         <v>44456</v>
       </c>
       <c r="K58" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -3547,36 +3583,36 @@
         <v>888515833</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I59" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J59" s="2">
         <v>44456</v>
       </c>
       <c r="K59" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -3585,36 +3621,36 @@
         <v>888515833</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G60">
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I60" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J60" s="2">
         <v>44456</v>
       </c>
       <c r="K60" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="L60" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -3623,36 +3659,36 @@
         <v>888515833</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F61" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="G61">
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="I61" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J61" s="2">
         <v>44456</v>
       </c>
       <c r="K61" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="L61" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -3661,36 +3697,36 @@
         <v>888515833</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G62">
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>44456</v>
       </c>
       <c r="K62" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -3699,36 +3735,36 @@
         <v>888515833</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G63">
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I63" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J63" s="2">
         <v>44456</v>
       </c>
       <c r="K63" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="L63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -3737,36 +3773,36 @@
         <v>888515834</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G64">
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J64" s="2">
         <v>44456</v>
       </c>
       <c r="K64" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -3775,36 +3811,36 @@
         <v>888515834</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F65" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I65" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J65" s="2">
         <v>44456</v>
       </c>
       <c r="K65" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="L65" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -3813,36 +3849,36 @@
         <v>888515834</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I66" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J66" s="2">
         <v>44456</v>
       </c>
       <c r="K66" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -3851,36 +3887,36 @@
         <v>888515834</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F67" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I67" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J67" s="2">
         <v>44456</v>
       </c>
       <c r="K67" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -3889,36 +3925,36 @@
         <v>888515838</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="F68" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="G68">
         <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="I68" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J68" s="2">
         <v>44497</v>
       </c>
       <c r="K68" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="L68" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -3927,36 +3963,36 @@
         <v>888515839</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F69" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G69">
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I69" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J69" s="2">
         <v>44456</v>
       </c>
       <c r="K69" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="L69" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -3965,36 +4001,36 @@
         <v>888515839</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F70" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G70">
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I70" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J70" s="2">
         <v>44456</v>
       </c>
       <c r="K70" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="L70" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -4003,36 +4039,36 @@
         <v>888515840</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G71">
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I71" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J71" s="2">
         <v>44456</v>
       </c>
       <c r="K71" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="L71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -4041,36 +4077,36 @@
         <v>888515840</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G72">
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J72" s="2">
         <v>44456</v>
       </c>
       <c r="K72" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -4079,36 +4115,36 @@
         <v>888515842</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G73">
         <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="I73" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J73" s="2">
         <v>44456</v>
       </c>
       <c r="K73" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="L73" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -4117,36 +4153,36 @@
         <v>888515842</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G74">
         <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I74" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J74" s="2">
         <v>44456</v>
       </c>
       <c r="K74" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="L74" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -4155,36 +4191,36 @@
         <v>888515842</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G75">
         <v>10</v>
       </c>
       <c r="H75" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I75" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J75" s="2">
         <v>44456</v>
       </c>
       <c r="K75" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="L75" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C76">
         <v>11</v>
@@ -4193,36 +4229,36 @@
         <v>888515843</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G76">
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I76" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J76" s="2">
         <v>44529</v>
       </c>
       <c r="K76" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="L76" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C77">
         <v>11</v>
@@ -4231,36 +4267,36 @@
         <v>888515843</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F77" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G77">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I77" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J77" s="2">
         <v>44529</v>
       </c>
       <c r="K77" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="L77" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -4269,36 +4305,36 @@
         <v>888515843</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G78">
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I78" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J78" s="2">
         <v>44529</v>
       </c>
       <c r="K78" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="L78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C79">
         <v>12</v>
@@ -4307,36 +4343,36 @@
         <v>888515844</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F79" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G79">
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J79" s="2">
         <v>44529</v>
       </c>
       <c r="K79" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="L79" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -4345,36 +4381,36 @@
         <v>888515844</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F80" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G80">
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I80" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J80" s="2">
         <v>44529</v>
       </c>
       <c r="K80" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="L80" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -4383,36 +4419,36 @@
         <v>888515844</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G81">
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I81" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J81" s="2">
         <v>44529</v>
       </c>
       <c r="K81" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="L81" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C82">
         <v>16</v>
@@ -4421,36 +4457,36 @@
         <v>888515850</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F82" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G82">
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I82" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J82" s="2">
         <v>44456</v>
       </c>
       <c r="K82" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="L82" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C83">
         <v>16</v>
@@ -4459,36 +4495,36 @@
         <v>888515850</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F83" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="G83">
         <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I83" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J83" s="2">
         <v>44456</v>
       </c>
       <c r="K83" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="L83" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C84">
         <v>16</v>
@@ -4497,36 +4533,36 @@
         <v>888515850</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F84" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="G84">
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I84" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J84" s="2">
         <v>44456</v>
       </c>
       <c r="K84" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="L84" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -4535,36 +4571,36 @@
         <v>888515850</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F85" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G85">
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I85" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J85" s="2">
         <v>44456</v>
       </c>
       <c r="K85" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="L85" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4573,36 +4609,36 @@
         <v>888515829</v>
       </c>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G86">
         <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="I86" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J86" s="2">
         <v>44456</v>
       </c>
       <c r="K86" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="L86" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4611,36 +4647,36 @@
         <v>888515829</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F87" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I87" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J87" s="2">
         <v>44456</v>
       </c>
       <c r="K87" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="L87" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -4649,36 +4685,36 @@
         <v>888515830</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F88" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G88">
         <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="I88" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J88" s="2">
         <v>44456</v>
       </c>
       <c r="K88" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="L88" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -4687,36 +4723,36 @@
         <v>888515830</v>
       </c>
       <c r="E89" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" t="s">
         <v>142</v>
-      </c>
-      <c r="F89" t="s">
-        <v>182</v>
       </c>
       <c r="G89">
         <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="I89" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J89" s="2">
         <v>44456</v>
       </c>
       <c r="K89" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="L89" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -4725,36 +4761,36 @@
         <v>888515830</v>
       </c>
       <c r="E90" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="I90" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J90" s="2">
         <v>44456</v>
       </c>
       <c r="K90" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="L90" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -4763,36 +4799,36 @@
         <v>888515832</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F91" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G91">
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I91" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J91" s="2">
         <v>44456</v>
       </c>
       <c r="K91" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="L91" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -4801,36 +4837,36 @@
         <v>888515832</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G92">
         <v>10</v>
       </c>
       <c r="H92" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="I92" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J92" s="2">
         <v>44456</v>
       </c>
       <c r="K92" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L92" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -4839,36 +4875,36 @@
         <v>888515833</v>
       </c>
       <c r="E93" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F93" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G93">
         <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I93" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J93" s="2">
         <v>44456</v>
       </c>
       <c r="K93" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="L93" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -4877,36 +4913,36 @@
         <v>888515833</v>
       </c>
       <c r="E94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G94">
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="I94" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J94" s="2">
         <v>44456</v>
       </c>
       <c r="K94" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="L94" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -4915,36 +4951,36 @@
         <v>888515833</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F95" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="G95">
         <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="I95" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J95" s="2">
         <v>44456</v>
       </c>
       <c r="K95" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="L95" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -4953,36 +4989,36 @@
         <v>888515833</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G96">
         <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="I96" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J96" s="2">
         <v>44456</v>
       </c>
       <c r="K96" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="L96" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -4991,36 +5027,36 @@
         <v>888515833</v>
       </c>
       <c r="E97" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F97" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I97" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J97" s="2">
         <v>44456</v>
       </c>
       <c r="K97" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="L97" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -5029,36 +5065,36 @@
         <v>888515834</v>
       </c>
       <c r="E98" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G98">
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I98" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J98" s="2">
         <v>44456</v>
       </c>
       <c r="K98" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="L98" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -5067,36 +5103,36 @@
         <v>888515834</v>
       </c>
       <c r="E99" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G99">
         <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="I99" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J99" s="2">
         <v>44456</v>
       </c>
       <c r="K99" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="L99" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -5105,36 +5141,36 @@
         <v>888515834</v>
       </c>
       <c r="E100" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="G100">
         <v>5</v>
       </c>
       <c r="H100" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I100" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J100" s="2">
         <v>44456</v>
       </c>
       <c r="K100" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="L100" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -5143,36 +5179,36 @@
         <v>888515834</v>
       </c>
       <c r="E101" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F101" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="G101">
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I101" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J101" s="2">
         <v>44456</v>
       </c>
       <c r="K101" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="L101" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C102">
         <v>8</v>
@@ -5181,36 +5217,36 @@
         <v>888515839</v>
       </c>
       <c r="E102" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G102">
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I102" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J102" s="2">
         <v>44456</v>
       </c>
       <c r="K102" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="L102" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -5219,36 +5255,36 @@
         <v>888515839</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F103" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G103">
         <v>5</v>
       </c>
       <c r="H103" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I103" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J103" s="2">
         <v>44456</v>
       </c>
       <c r="K103" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="L103" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C104">
         <v>9</v>
@@ -5257,36 +5293,36 @@
         <v>888515840</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G104">
         <v>5</v>
       </c>
       <c r="H104" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I104" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J104" s="2">
         <v>44456</v>
       </c>
       <c r="K104" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L104" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -5295,36 +5331,36 @@
         <v>888515840</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G105">
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I105" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J105" s="2">
         <v>44456</v>
       </c>
       <c r="K105" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="L105" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C106">
         <v>10</v>
@@ -5333,36 +5369,36 @@
         <v>888515842</v>
       </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F106" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G106">
         <v>10</v>
       </c>
       <c r="H106" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="I106" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J106" s="2">
         <v>44456</v>
       </c>
       <c r="K106" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="L106" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C107">
         <v>10</v>
@@ -5371,36 +5407,36 @@
         <v>888515842</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F107" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
       <c r="H107" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I107" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J107" s="2">
         <v>44456</v>
       </c>
       <c r="K107" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="L107" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -5409,36 +5445,36 @@
         <v>888515842</v>
       </c>
       <c r="E108" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="H108" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="I108" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="J108" s="2">
         <v>44456</v>
       </c>
       <c r="K108" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L108" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C109">
         <v>11</v>
@@ -5447,36 +5483,36 @@
         <v>888515843</v>
       </c>
       <c r="E109" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G109">
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I109" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J109" s="2">
         <v>44529</v>
       </c>
       <c r="K109" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="L109" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C110">
         <v>11</v>
@@ -5485,36 +5521,36 @@
         <v>888515843</v>
       </c>
       <c r="E110" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G110">
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I110" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J110" s="2">
         <v>44529</v>
       </c>
       <c r="K110" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="L110" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -5523,36 +5559,36 @@
         <v>888515843</v>
       </c>
       <c r="E111" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G111">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I111" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J111" s="2">
         <v>44529</v>
       </c>
       <c r="K111" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="L111" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C112">
         <v>12</v>
@@ -5561,36 +5597,36 @@
         <v>888515844</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G112">
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I112" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J112" s="2">
         <v>44529</v>
       </c>
       <c r="K112" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L112" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -5599,36 +5635,36 @@
         <v>888515844</v>
       </c>
       <c r="E113" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G113">
         <v>5</v>
       </c>
       <c r="H113" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I113" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J113" s="2">
         <v>44529</v>
       </c>
       <c r="K113" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="L113" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C114">
         <v>12</v>
@@ -5637,36 +5673,36 @@
         <v>888515844</v>
       </c>
       <c r="E114" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="G114">
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I114" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J114" s="2">
         <v>44529</v>
       </c>
       <c r="K114" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="L114" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C115">
         <v>16</v>
@@ -5675,36 +5711,36 @@
         <v>888515850</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G115">
         <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I115" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J115" s="2">
         <v>44456</v>
       </c>
       <c r="K115" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="L115" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="B116" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C116">
         <v>16</v>
@@ -5713,36 +5749,36 @@
         <v>888515850</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="G116">
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I116" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J116" s="2">
         <v>44456</v>
       </c>
       <c r="K116" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L116" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -5751,36 +5787,36 @@
         <v>888515850</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="G117">
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I117" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J117" s="2">
         <v>44456</v>
       </c>
       <c r="K117" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L117" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C118">
         <v>16</v>
@@ -5789,36 +5825,36 @@
         <v>888515850</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G118">
         <v>5</v>
       </c>
       <c r="H118" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="I118" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J118" s="2">
         <v>44456</v>
       </c>
       <c r="K118" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L118" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5827,36 +5863,36 @@
         <v>888510387</v>
       </c>
       <c r="E119" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="F119" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="G119">
         <v>2</v>
       </c>
       <c r="H119" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="I119" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J119" s="2">
         <v>44489</v>
       </c>
       <c r="K119" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L119" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -5865,36 +5901,36 @@
         <v>888510388</v>
       </c>
       <c r="E120" t="s">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="F120" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="G120">
         <v>2</v>
       </c>
       <c r="H120" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="I120" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J120" s="2">
         <v>44489</v>
       </c>
       <c r="K120" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5903,36 +5939,36 @@
         <v>888510388</v>
       </c>
       <c r="E121" t="s">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="F121" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="G121">
         <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="I121" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J121" s="2">
         <v>44489</v>
       </c>
       <c r="K121" t="s">
+        <v>311</v>
+      </c>
+      <c r="L121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>312</v>
       </c>
-      <c r="L121" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" t="s">
-        <v>113</v>
-      </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5941,31 +5977,34 @@
         <v>888504235</v>
       </c>
       <c r="E122" t="s">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="F122" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
       <c r="H122" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="I122" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J122" s="2">
         <v>44421</v>
       </c>
       <c r="K122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:L122" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>